--- a/data/proshares_analysis_data.xlsx
+++ b/data/proshares_analysis_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Projects/finm-portfolio-2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3E2837-6EFD-044F-9143-34C913804368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE06B7B6-2B28-1A41-8570-5BC9F1B1B36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-1460" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>security_name</t>
   </si>
@@ -120,13 +120,16 @@
   <si>
     <t>HFRIFWI Index</t>
   </si>
+  <si>
+    <t>HFR Fund Wghted Comp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -140,6 +143,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -188,7 +192,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -496,11 +500,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -549,81 +556,89 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
     </row>
